--- a/Automation/base_scripts/Reference_template.xlsx
+++ b/Automation/base_scripts/Reference_template.xlsx
@@ -221,7 +221,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +270,42 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="21"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="48">
     <border>
@@ -1083,13 +1119,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1104,7 +1140,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1128,7 +1164,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1137,34 +1173,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1176,40 +1212,40 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1227,7 +1263,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1236,7 +1272,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1245,7 +1281,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1279,13 +1315,19 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffccfcac"/>
+      <rgbColor rgb="ff4dac2b"/>
       <rgbColor rgb="ff0432ff"/>
-      <rgbColor rgb="ffff8cc5"/>
-      <rgbColor rgb="fffcde9e"/>
-      <rgbColor rgb="ffa6daff"/>
+      <rgbColor rgb="ffff0800"/>
+      <rgbColor rgb="fffae232"/>
+      <rgbColor rgb="ff006fff"/>
       <rgbColor rgb="ffa7b7ff"/>
+      <rgbColor rgb="fffcf500"/>
+      <rgbColor rgb="ffff1900"/>
+      <rgbColor rgb="ff0064ff"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffff2200"/>
+      <rgbColor rgb="fff1fc00"/>
+      <rgbColor rgb="ff006aff"/>
     </indexedColors>
   </colors>
 </styleSheet>

--- a/Automation/base_scripts/Reference_template.xlsx
+++ b/Automation/base_scripts/Reference_template.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opentrons\Documents\GitHub\covid19huc\Automation\base_scripts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Input layout" sheetId="1" r:id="rId4"/>
-    <sheet name="Deck layout" sheetId="2" r:id="rId5"/>
-    <sheet name="Deepwell layout" sheetId="3" r:id="rId6"/>
-    <sheet name="Info" sheetId="4" r:id="rId7"/>
+    <sheet name="Input layout" sheetId="1" r:id="rId1"/>
+    <sheet name="Deck layout" sheetId="2" r:id="rId2"/>
+    <sheet name="Deepwell layout" sheetId="3" r:id="rId3"/>
+    <sheet name="Info" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="47">
   <si>
     <t>Table 1</t>
   </si>
@@ -161,10 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="10"/>
@@ -182,40 +187,40 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="25"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -1000,298 +1005,303 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="97">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1301,40 +1311,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ff4dac2b"/>
-      <rgbColor rgb="ff0432ff"/>
-      <rgbColor rgb="ffff0800"/>
-      <rgbColor rgb="fffae232"/>
-      <rgbColor rgb="ff006fff"/>
-      <rgbColor rgb="ffa7b7ff"/>
-      <rgbColor rgb="fffcf500"/>
-      <rgbColor rgb="ffff1900"/>
-      <rgbColor rgb="ff0064ff"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffff2200"/>
-      <rgbColor rgb="fff1fc00"/>
-      <rgbColor rgb="ff006aff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FF4DAC2B"/>
+      <rgbColor rgb="FF0432FF"/>
+      <rgbColor rgb="FFFF0800"/>
+      <rgbColor rgb="FFFAE232"/>
+      <rgbColor rgb="FF006FFF"/>
+      <rgbColor rgb="FFA7B7FF"/>
+      <rgbColor rgb="FFFCF500"/>
+      <rgbColor rgb="FFFF1900"/>
+      <rgbColor rgb="FF0064FF"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFFF2200"/>
+      <rgbColor rgb="FFF1FC00"/>
+      <rgbColor rgb="FF006AFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1536,7 +1591,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1555,7 +1610,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1585,7 +1640,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1611,7 +1666,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1637,7 +1692,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1663,7 +1718,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1689,7 +1744,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1715,7 +1770,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1741,7 +1796,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1767,7 +1822,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1793,7 +1848,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1806,9 +1861,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1825,7 +1886,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1844,7 +1905,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1870,7 +1931,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1896,7 +1957,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1922,7 +1983,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1948,7 +2009,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1974,7 +2035,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2000,7 +2061,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2026,7 +2087,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2052,7 +2113,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2078,7 +2139,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2091,9 +2152,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2107,7 +2174,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2126,7 +2193,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2156,7 +2223,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2182,7 +2249,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2208,7 +2275,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2234,7 +2301,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2260,7 +2327,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2286,7 +2353,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2312,7 +2379,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2338,7 +2405,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2364,7 +2431,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2377,1115 +2444,1125 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="16.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="20.85" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" t="s" s="6">
+    <row r="1" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="20.85" customHeight="1">
-      <c r="A3" t="s" s="9">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="10">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12">
+      <c r="C3" s="95"/>
+      <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" t="s" s="15">
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="86"/>
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17">
+      <c r="C4" s="96"/>
+      <c r="D4" s="12">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" t="s" s="15">
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="86"/>
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17">
+      <c r="C5" s="96"/>
+      <c r="D5" s="12">
         <v>3</v>
       </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" t="s" s="15">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="86"/>
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17">
+      <c r="C6" s="96"/>
+      <c r="D6" s="12">
         <v>4</v>
       </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" t="s" s="15">
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="86"/>
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17">
+      <c r="C7" s="96"/>
+      <c r="D7" s="12">
         <v>5</v>
       </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" t="s" s="15">
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="86"/>
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17">
+      <c r="C8" s="96"/>
+      <c r="D8" s="12">
         <v>6</v>
       </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" t="s" s="15">
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="86"/>
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17">
+      <c r="C9" s="96"/>
+      <c r="D9" s="12">
         <v>7</v>
       </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" ht="20.85" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" t="s" s="15">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A10" s="86"/>
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="18">
+      <c r="C10" s="96"/>
+      <c r="D10" s="13">
         <v>8</v>
       </c>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" ht="20.85" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" t="s" s="15">
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A11" s="86"/>
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="12">
+      <c r="C11" s="96"/>
+      <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" t="s" s="15">
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="86"/>
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17">
+      <c r="C12" s="96"/>
+      <c r="D12" s="12">
         <v>2</v>
       </c>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" t="s" s="15">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="86"/>
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
+      <c r="C13" s="96"/>
+      <c r="D13" s="12">
         <v>3</v>
       </c>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" t="s" s="15">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="86"/>
+      <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17">
+      <c r="C14" s="96"/>
+      <c r="D14" s="12">
         <v>4</v>
       </c>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" t="s" s="15">
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="86"/>
+      <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17">
+      <c r="C15" s="96"/>
+      <c r="D15" s="12">
         <v>5</v>
       </c>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" t="s" s="15">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="86"/>
+      <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17">
+      <c r="C16" s="96"/>
+      <c r="D16" s="12">
         <v>6</v>
       </c>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" t="s" s="15">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="86"/>
+      <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17">
+      <c r="C17" s="96"/>
+      <c r="D17" s="12">
         <v>7</v>
       </c>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" ht="20.85" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" t="s" s="15">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A18" s="86"/>
+      <c r="B18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="18">
+      <c r="C18" s="96"/>
+      <c r="D18" s="13">
         <v>8</v>
       </c>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" ht="20.85" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" t="s" s="15">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A19" s="86"/>
+      <c r="B19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="12">
+      <c r="C19" s="96"/>
+      <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" t="s" s="15">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="86"/>
+      <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17">
+      <c r="C20" s="96"/>
+      <c r="D20" s="12">
         <v>2</v>
       </c>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" t="s" s="15">
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="86"/>
+      <c r="B21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17">
+      <c r="C21" s="96"/>
+      <c r="D21" s="12">
         <v>3</v>
       </c>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" t="s" s="15">
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="86"/>
+      <c r="B22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17">
+      <c r="C22" s="96"/>
+      <c r="D22" s="12">
         <v>4</v>
       </c>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" t="s" s="15">
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="86"/>
+      <c r="B23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17">
+      <c r="C23" s="96"/>
+      <c r="D23" s="12">
         <v>5</v>
       </c>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" t="s" s="15">
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="86"/>
+      <c r="B24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17">
+      <c r="C24" s="96"/>
+      <c r="D24" s="12">
         <v>6</v>
       </c>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" t="s" s="15">
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="86"/>
+      <c r="B25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17">
+      <c r="C25" s="96"/>
+      <c r="D25" s="12">
         <v>7</v>
       </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" ht="20.85" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" t="s" s="15">
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A26" s="86"/>
+      <c r="B26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="18">
+      <c r="C26" s="96"/>
+      <c r="D26" s="13">
         <v>8</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="20.85" customHeight="1">
-      <c r="A27" t="s" s="19">
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A27" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s" s="20">
+      <c r="B27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="12">
+      <c r="C27" s="96"/>
+      <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="14"/>
-      <c r="B28" t="s" s="21">
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="86"/>
+      <c r="B28" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17">
+      <c r="C28" s="96"/>
+      <c r="D28" s="12">
         <v>2</v>
       </c>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" t="s" s="21">
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="86"/>
+      <c r="B29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17">
+      <c r="C29" s="96"/>
+      <c r="D29" s="12">
         <v>3</v>
       </c>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" t="s" s="21">
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="86"/>
+      <c r="B30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17">
+      <c r="C30" s="96"/>
+      <c r="D30" s="12">
         <v>4</v>
       </c>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" t="s" s="21">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="86"/>
+      <c r="B31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17">
+      <c r="C31" s="96"/>
+      <c r="D31" s="12">
         <v>5</v>
       </c>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" t="s" s="21">
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="86"/>
+      <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17">
+      <c r="C32" s="96"/>
+      <c r="D32" s="12">
         <v>6</v>
       </c>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" t="s" s="21">
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="86"/>
+      <c r="B33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17">
+      <c r="C33" s="96"/>
+      <c r="D33" s="12">
         <v>7</v>
       </c>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" ht="20.85" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" t="s" s="21">
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A34" s="86"/>
+      <c r="B34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="18">
+      <c r="C34" s="96"/>
+      <c r="D34" s="13">
         <v>8</v>
       </c>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" ht="20.85" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" t="s" s="21">
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A35" s="86"/>
+      <c r="B35" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="12">
+      <c r="C35" s="96"/>
+      <c r="D35" s="8">
         <v>1</v>
       </c>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="14"/>
-      <c r="B36" t="s" s="21">
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="86"/>
+      <c r="B36" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17">
+      <c r="C36" s="96"/>
+      <c r="D36" s="12">
         <v>2</v>
       </c>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" t="s" s="21">
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="86"/>
+      <c r="B37" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17">
+      <c r="C37" s="96"/>
+      <c r="D37" s="12">
         <v>3</v>
       </c>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" t="s" s="21">
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="86"/>
+      <c r="B38" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17">
+      <c r="C38" s="96"/>
+      <c r="D38" s="12">
         <v>4</v>
       </c>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" t="s" s="21">
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="86"/>
+      <c r="B39" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17">
+      <c r="C39" s="96"/>
+      <c r="D39" s="12">
         <v>5</v>
       </c>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" t="s" s="21">
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="86"/>
+      <c r="B40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17">
+      <c r="C40" s="96"/>
+      <c r="D40" s="12">
         <v>6</v>
       </c>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="14"/>
-      <c r="B41" t="s" s="21">
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="86"/>
+      <c r="B41" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17">
+      <c r="C41" s="96"/>
+      <c r="D41" s="12">
         <v>7</v>
       </c>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" ht="20.85" customHeight="1">
-      <c r="A42" s="14"/>
-      <c r="B42" t="s" s="21">
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A42" s="86"/>
+      <c r="B42" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="18">
+      <c r="C42" s="96"/>
+      <c r="D42" s="13">
         <v>8</v>
       </c>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" ht="20.85" customHeight="1">
-      <c r="A43" s="14"/>
-      <c r="B43" t="s" s="21">
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A43" s="86"/>
+      <c r="B43" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="12">
+      <c r="C43" s="96"/>
+      <c r="D43" s="8">
         <v>1</v>
       </c>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="14"/>
-      <c r="B44" t="s" s="21">
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="86"/>
+      <c r="B44" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17">
+      <c r="C44" s="96"/>
+      <c r="D44" s="12">
         <v>2</v>
       </c>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="14"/>
-      <c r="B45" t="s" s="21">
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="86"/>
+      <c r="B45" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17">
+      <c r="C45" s="96"/>
+      <c r="D45" s="12">
         <v>3</v>
       </c>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="14"/>
-      <c r="B46" t="s" s="21">
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="86"/>
+      <c r="B46" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17">
+      <c r="C46" s="96"/>
+      <c r="D46" s="12">
         <v>4</v>
       </c>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="14"/>
-      <c r="B47" t="s" s="21">
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="86"/>
+      <c r="B47" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17">
+      <c r="C47" s="96"/>
+      <c r="D47" s="12">
         <v>5</v>
       </c>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="14"/>
-      <c r="B48" t="s" s="21">
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="86"/>
+      <c r="B48" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17">
+      <c r="C48" s="96"/>
+      <c r="D48" s="12">
         <v>6</v>
       </c>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="14"/>
-      <c r="B49" t="s" s="21">
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="86"/>
+      <c r="B49" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17">
+      <c r="C49" s="96"/>
+      <c r="D49" s="12">
         <v>7</v>
       </c>
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" ht="20.85" customHeight="1">
-      <c r="A50" s="14"/>
-      <c r="B50" t="s" s="21">
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A50" s="86"/>
+      <c r="B50" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="18">
+      <c r="C50" s="96"/>
+      <c r="D50" s="13">
         <v>8</v>
       </c>
-      <c r="E50" s="13"/>
-    </row>
-    <row r="51" ht="20.85" customHeight="1">
-      <c r="A51" t="s" s="22">
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A51" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B51" t="s" s="23">
+      <c r="B51" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="12">
+      <c r="C51" s="96"/>
+      <c r="D51" s="8">
         <v>1</v>
       </c>
-      <c r="E51" s="13"/>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="14"/>
-      <c r="B52" t="s" s="24">
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="86"/>
+      <c r="B52" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17">
+      <c r="C52" s="96"/>
+      <c r="D52" s="12">
         <v>2</v>
       </c>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="14"/>
-      <c r="B53" t="s" s="24">
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="86"/>
+      <c r="B53" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="17">
+      <c r="C53" s="96"/>
+      <c r="D53" s="12">
         <v>3</v>
       </c>
-      <c r="E53" s="13"/>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="14"/>
-      <c r="B54" t="s" s="24">
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="86"/>
+      <c r="B54" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="17">
+      <c r="C54" s="96"/>
+      <c r="D54" s="12">
         <v>4</v>
       </c>
-      <c r="E54" s="13"/>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" s="14"/>
-      <c r="B55" t="s" s="24">
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="86"/>
+      <c r="B55" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="17">
+      <c r="C55" s="96"/>
+      <c r="D55" s="12">
         <v>5</v>
       </c>
-      <c r="E55" s="13"/>
-    </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" s="14"/>
-      <c r="B56" t="s" s="24">
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="86"/>
+      <c r="B56" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17">
+      <c r="C56" s="96"/>
+      <c r="D56" s="12">
         <v>6</v>
       </c>
-      <c r="E56" s="13"/>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" s="14"/>
-      <c r="B57" t="s" s="24">
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="86"/>
+      <c r="B57" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="17">
+      <c r="C57" s="96"/>
+      <c r="D57" s="12">
         <v>7</v>
       </c>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="58" ht="20.85" customHeight="1">
-      <c r="A58" s="14"/>
-      <c r="B58" t="s" s="24">
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A58" s="86"/>
+      <c r="B58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="18">
+      <c r="C58" s="96"/>
+      <c r="D58" s="13">
         <v>8</v>
       </c>
-      <c r="E58" s="13"/>
-    </row>
-    <row r="59" ht="20.85" customHeight="1">
-      <c r="A59" s="14"/>
-      <c r="B59" t="s" s="24">
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A59" s="86"/>
+      <c r="B59" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="12">
+      <c r="C59" s="96"/>
+      <c r="D59" s="8">
         <v>1</v>
       </c>
-      <c r="E59" s="13"/>
-    </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" s="14"/>
-      <c r="B60" t="s" s="24">
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="86"/>
+      <c r="B60" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="17">
+      <c r="C60" s="96"/>
+      <c r="D60" s="12">
         <v>2</v>
       </c>
-      <c r="E60" s="13"/>
-    </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" s="14"/>
-      <c r="B61" t="s" s="24">
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="86"/>
+      <c r="B61" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="17">
+      <c r="C61" s="96"/>
+      <c r="D61" s="12">
         <v>3</v>
       </c>
-      <c r="E61" s="13"/>
-    </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" s="14"/>
-      <c r="B62" t="s" s="24">
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="86"/>
+      <c r="B62" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="17">
+      <c r="C62" s="96"/>
+      <c r="D62" s="12">
         <v>4</v>
       </c>
-      <c r="E62" s="13"/>
-    </row>
-    <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" s="14"/>
-      <c r="B63" t="s" s="24">
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="86"/>
+      <c r="B63" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="17">
+      <c r="C63" s="96"/>
+      <c r="D63" s="12">
         <v>5</v>
       </c>
-      <c r="E63" s="13"/>
-    </row>
-    <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" s="14"/>
-      <c r="B64" t="s" s="24">
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="86"/>
+      <c r="B64" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="17">
+      <c r="C64" s="96"/>
+      <c r="D64" s="12">
         <v>6</v>
       </c>
-      <c r="E64" s="13"/>
-    </row>
-    <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" s="14"/>
-      <c r="B65" t="s" s="24">
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="86"/>
+      <c r="B65" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="17">
+      <c r="C65" s="96"/>
+      <c r="D65" s="12">
         <v>7</v>
       </c>
-      <c r="E65" s="13"/>
-    </row>
-    <row r="66" ht="20.85" customHeight="1">
-      <c r="A66" s="14"/>
-      <c r="B66" t="s" s="24">
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A66" s="86"/>
+      <c r="B66" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="18">
+      <c r="C66" s="96"/>
+      <c r="D66" s="13">
         <v>8</v>
       </c>
-      <c r="E66" s="13"/>
-    </row>
-    <row r="67" ht="20.85" customHeight="1">
-      <c r="A67" s="14"/>
-      <c r="B67" t="s" s="24">
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A67" s="86"/>
+      <c r="B67" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="12">
+      <c r="C67" s="96"/>
+      <c r="D67" s="8">
         <v>1</v>
       </c>
-      <c r="E67" s="13"/>
-    </row>
-    <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" s="14"/>
-      <c r="B68" t="s" s="24">
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="86"/>
+      <c r="B68" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17">
+      <c r="C68" s="96"/>
+      <c r="D68" s="12">
         <v>2</v>
       </c>
-      <c r="E68" s="13"/>
-    </row>
-    <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" s="14"/>
-      <c r="B69" t="s" s="24">
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="86"/>
+      <c r="B69" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="17">
+      <c r="C69" s="96"/>
+      <c r="D69" s="12">
         <v>3</v>
       </c>
-      <c r="E69" s="13"/>
-    </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" s="14"/>
-      <c r="B70" t="s" s="24">
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="86"/>
+      <c r="B70" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="17">
+      <c r="C70" s="96"/>
+      <c r="D70" s="12">
         <v>4</v>
       </c>
-      <c r="E70" s="13"/>
-    </row>
-    <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" s="14"/>
-      <c r="B71" t="s" s="24">
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="86"/>
+      <c r="B71" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="17">
+      <c r="C71" s="96"/>
+      <c r="D71" s="12">
         <v>5</v>
       </c>
-      <c r="E71" s="13"/>
-    </row>
-    <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" s="14"/>
-      <c r="B72" t="s" s="24">
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="86"/>
+      <c r="B72" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17">
+      <c r="C72" s="96"/>
+      <c r="D72" s="12">
         <v>6</v>
       </c>
-      <c r="E72" s="13"/>
-    </row>
-    <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" s="14"/>
-      <c r="B73" t="s" s="24">
+      <c r="E72" s="9"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="86"/>
+      <c r="B73" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="17">
+      <c r="C73" s="96"/>
+      <c r="D73" s="12">
         <v>7</v>
       </c>
-      <c r="E73" s="13"/>
-    </row>
-    <row r="74" ht="20.85" customHeight="1">
-      <c r="A74" s="14"/>
-      <c r="B74" t="s" s="24">
+      <c r="E73" s="9"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A74" s="86"/>
+      <c r="B74" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="18">
+      <c r="C74" s="96"/>
+      <c r="D74" s="13">
         <v>8</v>
       </c>
-      <c r="E74" s="13"/>
-    </row>
-    <row r="75" ht="20.85" customHeight="1">
-      <c r="A75" t="s" s="25">
+      <c r="E74" s="9"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A75" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B75" t="s" s="26">
+      <c r="B75" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="16"/>
-      <c r="D75" s="12">
+      <c r="C75" s="96"/>
+      <c r="D75" s="8">
         <v>1</v>
       </c>
-      <c r="E75" s="13"/>
-    </row>
-    <row r="76" ht="20.05" customHeight="1">
-      <c r="A76" s="14"/>
-      <c r="B76" t="s" s="27">
+      <c r="E75" s="9"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="86"/>
+      <c r="B76" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="17">
+      <c r="C76" s="96"/>
+      <c r="D76" s="12">
         <v>2</v>
       </c>
-      <c r="E76" s="13"/>
-    </row>
-    <row r="77" ht="20.05" customHeight="1">
-      <c r="A77" s="14"/>
-      <c r="B77" t="s" s="27">
+      <c r="E76" s="9"/>
+    </row>
+    <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="86"/>
+      <c r="B77" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="17">
+      <c r="C77" s="96"/>
+      <c r="D77" s="12">
         <v>3</v>
       </c>
-      <c r="E77" s="13"/>
-    </row>
-    <row r="78" ht="20.05" customHeight="1">
-      <c r="A78" s="14"/>
-      <c r="B78" t="s" s="27">
+      <c r="E77" s="9"/>
+    </row>
+    <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A78" s="86"/>
+      <c r="B78" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="17">
+      <c r="C78" s="96"/>
+      <c r="D78" s="12">
         <v>4</v>
       </c>
-      <c r="E78" s="13"/>
-    </row>
-    <row r="79" ht="20.05" customHeight="1">
-      <c r="A79" s="14"/>
-      <c r="B79" t="s" s="27">
+      <c r="E78" s="9"/>
+    </row>
+    <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A79" s="86"/>
+      <c r="B79" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="17">
+      <c r="C79" s="96"/>
+      <c r="D79" s="12">
         <v>5</v>
       </c>
-      <c r="E79" s="13"/>
-    </row>
-    <row r="80" ht="20.05" customHeight="1">
-      <c r="A80" s="14"/>
-      <c r="B80" t="s" s="27">
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="86"/>
+      <c r="B80" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="17">
+      <c r="C80" s="96"/>
+      <c r="D80" s="12">
         <v>6</v>
       </c>
-      <c r="E80" s="13"/>
-    </row>
-    <row r="81" ht="20.05" customHeight="1">
-      <c r="A81" s="14"/>
-      <c r="B81" t="s" s="27">
+      <c r="E80" s="9"/>
+    </row>
+    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="86"/>
+      <c r="B81" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="17">
+      <c r="C81" s="96"/>
+      <c r="D81" s="12">
         <v>7</v>
       </c>
-      <c r="E81" s="13"/>
-    </row>
-    <row r="82" ht="20.85" customHeight="1">
-      <c r="A82" s="14"/>
-      <c r="B82" t="s" s="27">
+      <c r="E81" s="9"/>
+    </row>
+    <row r="82" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A82" s="86"/>
+      <c r="B82" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="18">
+      <c r="C82" s="96"/>
+      <c r="D82" s="13">
         <v>8</v>
       </c>
-      <c r="E82" s="13"/>
-    </row>
-    <row r="83" ht="20.85" customHeight="1">
-      <c r="A83" s="14"/>
-      <c r="B83" t="s" s="27">
+      <c r="E82" s="9"/>
+    </row>
+    <row r="83" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A83" s="86"/>
+      <c r="B83" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="12">
+      <c r="C83" s="96"/>
+      <c r="D83" s="8">
         <v>1</v>
       </c>
-      <c r="E83" s="13"/>
-    </row>
-    <row r="84" ht="20.05" customHeight="1">
-      <c r="A84" s="14"/>
-      <c r="B84" t="s" s="27">
+      <c r="E83" s="9"/>
+    </row>
+    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="86"/>
+      <c r="B84" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="17">
+      <c r="C84" s="96"/>
+      <c r="D84" s="12">
         <v>2</v>
       </c>
-      <c r="E84" s="13"/>
-    </row>
-    <row r="85" ht="20.05" customHeight="1">
-      <c r="A85" s="14"/>
-      <c r="B85" t="s" s="27">
+      <c r="E84" s="9"/>
+    </row>
+    <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="86"/>
+      <c r="B85" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="17">
+      <c r="C85" s="96"/>
+      <c r="D85" s="12">
         <v>3</v>
       </c>
-      <c r="E85" s="13"/>
-    </row>
-    <row r="86" ht="20.05" customHeight="1">
-      <c r="A86" s="14"/>
-      <c r="B86" t="s" s="27">
+      <c r="E85" s="9"/>
+    </row>
+    <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="86"/>
+      <c r="B86" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="17">
+      <c r="C86" s="96"/>
+      <c r="D86" s="12">
         <v>4</v>
       </c>
-      <c r="E86" s="13"/>
-    </row>
-    <row r="87" ht="20.05" customHeight="1">
-      <c r="A87" s="14"/>
-      <c r="B87" t="s" s="27">
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="86"/>
+      <c r="B87" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="17">
+      <c r="C87" s="96"/>
+      <c r="D87" s="12">
         <v>5</v>
       </c>
-      <c r="E87" s="13"/>
-    </row>
-    <row r="88" ht="20.05" customHeight="1">
-      <c r="A88" s="14"/>
-      <c r="B88" t="s" s="27">
+      <c r="E87" s="9"/>
+    </row>
+    <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="86"/>
+      <c r="B88" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="17">
+      <c r="C88" s="96"/>
+      <c r="D88" s="12">
         <v>6</v>
       </c>
-      <c r="E88" s="13"/>
-    </row>
-    <row r="89" ht="20.05" customHeight="1">
-      <c r="A89" s="14"/>
-      <c r="B89" t="s" s="27">
+      <c r="E88" s="9"/>
+    </row>
+    <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="86"/>
+      <c r="B89" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="17">
+      <c r="C89" s="96"/>
+      <c r="D89" s="12">
         <v>7</v>
       </c>
-      <c r="E89" s="13"/>
-    </row>
-    <row r="90" ht="20.85" customHeight="1">
-      <c r="A90" s="14"/>
-      <c r="B90" t="s" s="27">
+      <c r="E89" s="9"/>
+    </row>
+    <row r="90" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A90" s="86"/>
+      <c r="B90" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="18">
+      <c r="C90" s="96"/>
+      <c r="D90" s="13">
         <v>8</v>
       </c>
-      <c r="E90" s="13"/>
-    </row>
-    <row r="91" ht="20.85" customHeight="1">
-      <c r="A91" s="14"/>
-      <c r="B91" t="s" s="27">
+      <c r="E90" s="9"/>
+    </row>
+    <row r="91" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A91" s="86"/>
+      <c r="B91" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="12">
+      <c r="C91" s="96"/>
+      <c r="D91" s="8">
         <v>1</v>
       </c>
-      <c r="E91" s="13"/>
-    </row>
-    <row r="92" ht="20.05" customHeight="1">
-      <c r="A92" s="14"/>
-      <c r="B92" t="s" s="27">
+      <c r="E91" s="9"/>
+    </row>
+    <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A92" s="86"/>
+      <c r="B92" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="17">
+      <c r="C92" s="96"/>
+      <c r="D92" s="12">
         <v>2</v>
       </c>
-      <c r="E92" s="13"/>
-    </row>
-    <row r="93" ht="20.05" customHeight="1">
-      <c r="A93" s="14"/>
-      <c r="B93" t="s" s="27">
+      <c r="E92" s="9"/>
+    </row>
+    <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A93" s="86"/>
+      <c r="B93" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C93" s="16"/>
-      <c r="D93" s="17">
+      <c r="C93" s="96"/>
+      <c r="D93" s="12">
         <v>3</v>
       </c>
-      <c r="E93" s="13"/>
-    </row>
-    <row r="94" ht="20.05" customHeight="1">
-      <c r="A94" s="14"/>
-      <c r="B94" t="s" s="27">
+      <c r="E93" s="9"/>
+    </row>
+    <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A94" s="86"/>
+      <c r="B94" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="17">
+      <c r="C94" s="96"/>
+      <c r="D94" s="12">
         <v>4</v>
       </c>
-      <c r="E94" s="13"/>
-    </row>
-    <row r="95" ht="20.05" customHeight="1">
-      <c r="A95" s="14"/>
-      <c r="B95" t="s" s="27">
+      <c r="E94" s="9"/>
+    </row>
+    <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A95" s="86"/>
+      <c r="B95" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="17">
+      <c r="C95" s="96"/>
+      <c r="D95" s="12">
         <v>5</v>
       </c>
-      <c r="E95" s="13"/>
-    </row>
-    <row r="96" ht="20.05" customHeight="1">
-      <c r="A96" s="14"/>
-      <c r="B96" t="s" s="27">
+      <c r="E95" s="9"/>
+    </row>
+    <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A96" s="86"/>
+      <c r="B96" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="17">
+      <c r="C96" s="96"/>
+      <c r="D96" s="12">
         <v>6</v>
       </c>
-      <c r="E96" s="13"/>
-    </row>
-    <row r="97" ht="20.05" customHeight="1">
-      <c r="A97" s="14"/>
-      <c r="B97" t="s" s="27">
+      <c r="E96" s="9"/>
+    </row>
+    <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A97" s="86"/>
+      <c r="B97" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="16"/>
-      <c r="D97" s="17">
+      <c r="C97" s="96"/>
+      <c r="D97" s="12">
         <v>7</v>
       </c>
-      <c r="E97" s="13"/>
-    </row>
-    <row r="98" ht="20.85" customHeight="1">
-      <c r="A98" s="28"/>
-      <c r="B98" t="s" s="29">
+      <c r="E97" s="9"/>
+    </row>
+    <row r="98" spans="1:5" ht="20.85" customHeight="1">
+      <c r="A98" s="90"/>
+      <c r="B98" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="16"/>
-      <c r="D98" s="18">
+      <c r="C98" s="96"/>
+      <c r="D98" s="13">
         <v>8</v>
       </c>
-      <c r="E98" s="30"/>
+      <c r="E98" s="21"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A26"/>
@@ -3494,7 +3571,7 @@
     <mergeCell ref="A75:A98"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3502,628 +3579,631 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:O1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="31" customWidth="1"/>
-    <col min="2" max="3" width="14.5" style="31" customWidth="1"/>
-    <col min="4" max="7" width="16.3516" style="31" customWidth="1"/>
-    <col min="8" max="8" width="4.17188" style="31" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="31" customWidth="1"/>
-    <col min="10" max="11" width="14.5" style="31" customWidth="1"/>
-    <col min="12" max="15" width="16.3516" style="31" customWidth="1"/>
-    <col min="16" max="16384" width="16.3516" style="31" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="22" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" style="22" customWidth="1"/>
+    <col min="4" max="7" width="16.28515625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="22" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="22" customWidth="1"/>
+    <col min="12" max="16" width="16.28515625" style="22" customWidth="1"/>
+    <col min="17" max="16384" width="16.28515625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:15" ht="27.6" customHeight="1">
+      <c r="A1" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="32"/>
-    </row>
-    <row r="2" ht="20.35" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" ht="24.25" customHeight="1">
-      <c r="A3" t="s" s="34">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="91"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.45" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="24.2" customHeight="1">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="25">
         <v>1</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="25">
         <v>2</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="25">
         <v>3</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="25">
         <v>4</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="25">
         <v>5</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="26">
         <v>6</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" t="s" s="38">
+      <c r="H3" s="27"/>
+      <c r="I3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="29">
         <v>1</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="29">
         <v>2</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="29">
         <v>3</v>
       </c>
-      <c r="M3" s="39">
+      <c r="M3" s="29">
         <v>4</v>
       </c>
-      <c r="N3" s="39">
+      <c r="N3" s="29">
         <v>5</v>
       </c>
-      <c r="O3" s="40">
+      <c r="O3" s="30">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="41">
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="32">
         <f>'Input layout'!C3</f>
         <v>0</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="33">
         <f>'Input layout'!C7</f>
         <v>0</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="33">
         <f>'Input layout'!C11</f>
         <v>0</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="33">
         <f>'Input layout'!C15</f>
         <v>0</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="33">
         <f>'Input layout'!C19</f>
         <v>0</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="34">
         <f>'Input layout'!C23</f>
         <v>0</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" t="s" s="45">
+      <c r="H4" s="10"/>
+      <c r="I4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="32">
         <f>'Input layout'!C51</f>
         <v>0</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="33">
         <f>'Input layout'!C55</f>
         <v>0</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="33">
         <f>'Input layout'!C59</f>
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="33">
         <f>'Input layout'!C63</f>
         <v>0</v>
       </c>
-      <c r="N4" s="43">
+      <c r="N4" s="33">
         <f>'Input layout'!C67</f>
         <v>0</v>
       </c>
-      <c r="O4" s="44">
+      <c r="O4" s="34">
         <f>'Input layout'!C71</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="41">
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="36">
         <f>'Input layout'!C4</f>
         <v>0</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="37">
         <f>'Input layout'!C8</f>
         <v>0</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="37">
         <f>'Input layout'!C12</f>
         <v>0</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="37">
         <f>'Input layout'!C16</f>
         <v>0</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="37">
         <f>'Input layout'!C20</f>
         <v>0</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="38">
         <f>'Input layout'!C24</f>
         <v>0</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" t="s" s="45">
+      <c r="H5" s="10"/>
+      <c r="I5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="36">
         <f>'Input layout'!C52</f>
         <v>0</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="37">
         <f>'Input layout'!C56</f>
         <v>0</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L5" s="37">
         <f>'Input layout'!C60</f>
         <v>0</v>
       </c>
-      <c r="M5" s="47">
+      <c r="M5" s="37">
         <f>'Input layout'!C64</f>
         <v>0</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N5" s="37">
         <f>'Input layout'!C68</f>
         <v>0</v>
       </c>
-      <c r="O5" s="48">
+      <c r="O5" s="38">
         <f>'Input layout'!C72</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="41">
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="36">
         <f>'Input layout'!C5</f>
         <v>0</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="37">
         <f>'Input layout'!C9</f>
         <v>0</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="37">
         <f>'Input layout'!C13</f>
         <v>0</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="37">
         <f>'Input layout'!C17</f>
         <v>0</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="37">
         <f>'Input layout'!C21</f>
         <v>0</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="38">
         <f>'Input layout'!C25</f>
         <v>0</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" t="s" s="45">
+      <c r="H6" s="10"/>
+      <c r="I6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="36">
         <f>'Input layout'!C53</f>
         <v>0</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="37">
         <f>'Input layout'!C57</f>
         <v>0</v>
       </c>
-      <c r="L6" s="47">
+      <c r="L6" s="37">
         <f>'Input layout'!C61</f>
         <v>0</v>
       </c>
-      <c r="M6" s="47">
+      <c r="M6" s="37">
         <f>'Input layout'!C65</f>
         <v>0</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N6" s="37">
         <f>'Input layout'!C69</f>
         <v>0</v>
       </c>
-      <c r="O6" s="48">
+      <c r="O6" s="38">
         <f>'Input layout'!C73</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="49">
+    <row r="7" spans="1:15" ht="20.45" customHeight="1">
+      <c r="A7" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="40">
         <f>'Input layout'!C6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="41">
         <f>'Input layout'!C10</f>
         <v>0</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="41">
         <f>'Input layout'!C14</f>
         <v>0</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="41">
         <f>'Input layout'!C18</f>
         <v>0</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="41">
         <f>'Input layout'!C22</f>
         <v>0</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="42">
         <f>'Input layout'!C26</f>
         <v>0</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" t="s" s="53">
+      <c r="H7" s="10"/>
+      <c r="I7" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="40">
         <f>'Input layout'!C54</f>
         <v>0</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="41">
         <f>'Input layout'!C58</f>
         <v>0</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="41">
         <f>'Input layout'!C62</f>
         <v>0</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="41">
         <f>'Input layout'!C66</f>
         <v>0</v>
       </c>
-      <c r="N7" s="51">
+      <c r="N7" s="41">
         <f>'Input layout'!C70</f>
         <v>0</v>
       </c>
-      <c r="O7" s="52">
+      <c r="O7" s="42">
         <f>'Input layout'!C74</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="20.7" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-    </row>
-    <row r="9" ht="24.25" customHeight="1">
-      <c r="A9" t="s" s="56">
+    <row r="8" spans="1:15" ht="20.65" customHeight="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+    </row>
+    <row r="9" spans="1:15" ht="24.2" customHeight="1">
+      <c r="A9" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="47">
         <v>1</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="47">
         <v>2</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="47">
         <v>3</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="47">
         <v>4</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="47">
         <v>5</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="48">
         <v>6</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" t="s" s="59">
+      <c r="H9" s="10"/>
+      <c r="I9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="50">
         <v>1</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="50">
         <v>2</v>
       </c>
-      <c r="L9" s="60">
+      <c r="L9" s="50">
         <v>3</v>
       </c>
-      <c r="M9" s="60">
+      <c r="M9" s="50">
         <v>4</v>
       </c>
-      <c r="N9" s="60">
+      <c r="N9" s="50">
         <v>5</v>
       </c>
-      <c r="O9" s="61">
+      <c r="O9" s="51">
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="62">
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="32">
         <f>'Input layout'!C27</f>
         <v>0</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="33">
         <f>'Input layout'!C31</f>
         <v>0</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="33">
         <f>'Input layout'!C35</f>
         <v>0</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="33">
         <f>'Input layout'!C39</f>
         <v>0</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="33">
         <f>'Input layout'!C43</f>
         <v>0</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="34">
         <f>'Input layout'!C47</f>
         <v>0</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" t="s" s="63">
+      <c r="H10" s="10"/>
+      <c r="I10" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="32">
         <f>'Input layout'!C75</f>
         <v>0</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="33">
         <f>'Input layout'!C79</f>
         <v>0</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="33">
         <f>'Input layout'!C83</f>
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="33">
         <f>'Input layout'!C87</f>
         <v>0</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="33">
         <f>'Input layout'!C91</f>
         <v>0</v>
       </c>
-      <c r="O10" s="44">
+      <c r="O10" s="34">
         <f>'Input layout'!C95</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="62">
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="36">
         <f>'Input layout'!C28</f>
         <v>0</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="37">
         <f>'Input layout'!C32</f>
         <v>0</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="37">
         <f>'Input layout'!C36</f>
         <v>0</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="37">
         <f>'Input layout'!C40</f>
         <v>0</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="37">
         <f>'Input layout'!C44</f>
         <v>0</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="38">
         <f>'Input layout'!C48</f>
         <v>0</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" t="s" s="63">
+      <c r="H11" s="10"/>
+      <c r="I11" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="36">
         <f>'Input layout'!C76</f>
         <v>0</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="37">
         <f>'Input layout'!C80</f>
         <v>0</v>
       </c>
-      <c r="L11" s="47">
+      <c r="L11" s="37">
         <f>'Input layout'!C84</f>
         <v>0</v>
       </c>
-      <c r="M11" s="47">
+      <c r="M11" s="37">
         <f>'Input layout'!C88</f>
         <v>0</v>
       </c>
-      <c r="N11" s="47">
+      <c r="N11" s="37">
         <f>'Input layout'!C92</f>
         <v>0</v>
       </c>
-      <c r="O11" s="48">
+      <c r="O11" s="38">
         <f>'Input layout'!C96</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="62">
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="36">
         <f>'Input layout'!C29</f>
         <v>0</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="37">
         <f>'Input layout'!C33</f>
         <v>0</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="37">
         <f>'Input layout'!C37</f>
         <v>0</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="37">
         <f>'Input layout'!C41</f>
         <v>0</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="37">
         <f>'Input layout'!C45</f>
         <v>0</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="38">
         <f>'Input layout'!C49</f>
         <v>0</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" t="s" s="63">
+      <c r="H12" s="10"/>
+      <c r="I12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="36">
         <f>'Input layout'!C77</f>
         <v>0</v>
       </c>
-      <c r="K12" s="47">
+      <c r="K12" s="37">
         <f>'Input layout'!C81</f>
         <v>0</v>
       </c>
-      <c r="L12" s="47">
+      <c r="L12" s="37">
         <f>'Input layout'!C85</f>
         <v>0</v>
       </c>
-      <c r="M12" s="47">
+      <c r="M12" s="37">
         <f>'Input layout'!C89</f>
         <v>0</v>
       </c>
-      <c r="N12" s="47">
+      <c r="N12" s="37">
         <f>'Input layout'!C93</f>
         <v>0</v>
       </c>
-      <c r="O12" s="48">
+      <c r="O12" s="38">
         <f>'Input layout'!C97</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" t="s" s="64">
+    <row r="13" spans="1:15" ht="20.45" customHeight="1">
+      <c r="A13" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="40">
         <f>'Input layout'!C30</f>
         <v>0</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="41">
         <f>'Input layout'!C34</f>
         <v>0</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="41">
         <f>'Input layout'!C38</f>
         <v>0</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="41">
         <f>'Input layout'!C42</f>
         <v>0</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="41">
         <f>'Input layout'!C46</f>
         <v>0</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="42">
         <f>'Input layout'!C50</f>
         <v>0</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" t="s" s="65">
+      <c r="H13" s="10"/>
+      <c r="I13" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="40">
         <f>'Input layout'!C78</f>
         <v>0</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="41">
         <f>'Input layout'!C82</f>
         <v>0</v>
       </c>
-      <c r="L13" s="51">
+      <c r="L13" s="41">
         <f>'Input layout'!C86</f>
         <v>0</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="41">
         <f>'Input layout'!C90</f>
         <v>0</v>
       </c>
-      <c r="N13" s="51">
+      <c r="N13" s="41">
         <f>'Input layout'!C94</f>
         <v>0</v>
       </c>
-      <c r="O13" s="52">
+      <c r="O13" s="42">
         <f>'Input layout'!C98</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4131,510 +4211,513 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="66" customWidth="1"/>
-    <col min="2" max="3" width="17.1719" style="66" customWidth="1"/>
-    <col min="4" max="13" width="16.3516" style="66" customWidth="1"/>
-    <col min="14" max="16384" width="16.3516" style="66" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="56" customWidth="1"/>
+    <col min="2" max="3" width="17.140625" style="56" customWidth="1"/>
+    <col min="4" max="14" width="16.28515625" style="56" customWidth="1"/>
+    <col min="15" max="16384" width="16.28515625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="32"/>
-    </row>
-    <row r="2" ht="25.1" customHeight="1">
-      <c r="A2" t="s" s="67">
+    <row r="1" spans="1:13" ht="27.6" customHeight="1">
+      <c r="A1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="91"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.15" customHeight="1">
+      <c r="A2" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="68">
+      <c r="B2" s="58">
         <v>1</v>
       </c>
-      <c r="C2" s="68">
+      <c r="C2" s="58">
         <v>2</v>
       </c>
-      <c r="D2" s="68">
+      <c r="D2" s="58">
         <v>3</v>
       </c>
-      <c r="E2" s="68">
+      <c r="E2" s="58">
         <v>4</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="58">
         <v>5</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="58">
         <v>6</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="58">
         <v>7</v>
       </c>
-      <c r="I2" s="68">
+      <c r="I2" s="58">
         <v>8</v>
       </c>
-      <c r="J2" s="68">
+      <c r="J2" s="58">
         <v>9</v>
       </c>
-      <c r="K2" s="68">
+      <c r="K2" s="58">
         <v>10</v>
       </c>
-      <c r="L2" s="68">
+      <c r="L2" s="58">
         <v>11</v>
       </c>
-      <c r="M2" s="68">
+      <c r="M2" s="58">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="23.2" customHeight="1">
-      <c r="A3" t="s" s="69">
+    <row r="3" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A3" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="70">
+      <c r="B3" s="60">
         <f>'Input layout'!C3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="60">
         <f>'Input layout'!C11</f>
         <v>0</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="60">
         <f>'Input layout'!C19</f>
         <v>0</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="61">
         <f>'Input layout'!C27</f>
         <v>0</v>
       </c>
-      <c r="F3" s="71">
+      <c r="F3" s="61">
         <f>'Input layout'!C35</f>
         <v>0</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="61">
         <f>'Input layout'!C43</f>
         <v>0</v>
       </c>
-      <c r="H3" s="72">
+      <c r="H3" s="62">
         <f>'Input layout'!C51</f>
         <v>0</v>
       </c>
-      <c r="I3" s="72">
+      <c r="I3" s="62">
         <f>'Input layout'!C59</f>
         <v>0</v>
       </c>
-      <c r="J3" s="72">
+      <c r="J3" s="62">
         <f>'Input layout'!C67</f>
         <v>0</v>
       </c>
-      <c r="K3" s="73">
+      <c r="K3" s="63">
         <f>'Input layout'!C75</f>
         <v>0</v>
       </c>
-      <c r="L3" s="73">
+      <c r="L3" s="63">
         <f>'Input layout'!C83</f>
         <v>0</v>
       </c>
-      <c r="M3" s="74">
+      <c r="M3" s="64">
         <f>'Input layout'!C91</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="23" customHeight="1">
-      <c r="A4" t="s" s="75">
+    <row r="4" spans="1:13" ht="23.1" customHeight="1">
+      <c r="A4" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="66">
         <f>'Input layout'!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="66">
         <f>'Input layout'!C12</f>
         <v>0</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="66">
         <f>'Input layout'!C20</f>
         <v>0</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="67">
         <f>'Input layout'!C28</f>
         <v>0</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="67">
         <f>'Input layout'!C36</f>
         <v>0</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="67">
         <f>'Input layout'!C44</f>
         <v>0</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H4" s="68">
         <f>'Input layout'!C52</f>
         <v>0</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="68">
         <f>'Input layout'!C60</f>
         <v>0</v>
       </c>
-      <c r="J4" s="78">
+      <c r="J4" s="68">
         <f>'Input layout'!C68</f>
         <v>0</v>
       </c>
-      <c r="K4" s="79">
+      <c r="K4" s="69">
         <f>'Input layout'!C76</f>
         <v>0</v>
       </c>
-      <c r="L4" s="79">
+      <c r="L4" s="69">
         <f>'Input layout'!C84</f>
         <v>0</v>
       </c>
-      <c r="M4" s="80">
+      <c r="M4" s="70">
         <f>'Input layout'!C92</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="23" customHeight="1">
-      <c r="A5" t="s" s="75">
+    <row r="5" spans="1:13" ht="23.1" customHeight="1">
+      <c r="A5" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="66">
         <f>'Input layout'!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="66">
         <f>'Input layout'!C13</f>
         <v>0</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="66">
         <f>'Input layout'!C21</f>
         <v>0</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="67">
         <f>'Input layout'!C29</f>
         <v>0</v>
       </c>
-      <c r="F5" s="77">
+      <c r="F5" s="67">
         <f>'Input layout'!C37</f>
         <v>0</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="67">
         <f>'Input layout'!C45</f>
         <v>0</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="68">
         <f>'Input layout'!C53</f>
         <v>0</v>
       </c>
-      <c r="I5" s="78">
+      <c r="I5" s="68">
         <f>'Input layout'!C61</f>
         <v>0</v>
       </c>
-      <c r="J5" s="78">
+      <c r="J5" s="68">
         <f>'Input layout'!C69</f>
         <v>0</v>
       </c>
-      <c r="K5" s="79">
+      <c r="K5" s="69">
         <f>'Input layout'!C77</f>
         <v>0</v>
       </c>
-      <c r="L5" s="79">
+      <c r="L5" s="69">
         <f>'Input layout'!C85</f>
         <v>0</v>
       </c>
-      <c r="M5" s="80">
+      <c r="M5" s="70">
         <f>'Input layout'!C93</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="23" customHeight="1">
-      <c r="A6" t="s" s="75">
+    <row r="6" spans="1:13" ht="23.1" customHeight="1">
+      <c r="A6" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="66">
         <f>'Input layout'!C6</f>
         <v>0</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="66">
         <f>'Input layout'!C14</f>
         <v>0</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="66">
         <f>'Input layout'!C22</f>
         <v>0</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="67">
         <f>'Input layout'!C30</f>
         <v>0</v>
       </c>
-      <c r="F6" s="77">
+      <c r="F6" s="67">
         <f>'Input layout'!C38</f>
         <v>0</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="67">
         <f>'Input layout'!C46</f>
         <v>0</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="68">
         <f>'Input layout'!C54</f>
         <v>0</v>
       </c>
-      <c r="I6" s="78">
+      <c r="I6" s="68">
         <f>'Input layout'!C62</f>
         <v>0</v>
       </c>
-      <c r="J6" s="78">
+      <c r="J6" s="68">
         <f>'Input layout'!C70</f>
         <v>0</v>
       </c>
-      <c r="K6" s="79">
+      <c r="K6" s="69">
         <f>'Input layout'!C78</f>
         <v>0</v>
       </c>
-      <c r="L6" s="79">
+      <c r="L6" s="69">
         <f>'Input layout'!C86</f>
         <v>0</v>
       </c>
-      <c r="M6" s="80">
+      <c r="M6" s="70">
         <f>'Input layout'!C94</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="23" customHeight="1">
-      <c r="A7" t="s" s="75">
+    <row r="7" spans="1:13" ht="23.1" customHeight="1">
+      <c r="A7" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="66">
         <f>'Input layout'!C7</f>
         <v>0</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="66">
         <f>'Input layout'!C15</f>
         <v>0</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="66">
         <f>'Input layout'!C23</f>
         <v>0</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="67">
         <f>'Input layout'!C31</f>
         <v>0</v>
       </c>
-      <c r="F7" s="77">
+      <c r="F7" s="67">
         <f>'Input layout'!C39</f>
         <v>0</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="67">
         <f>'Input layout'!C47</f>
         <v>0</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="68">
         <f>'Input layout'!C55</f>
         <v>0</v>
       </c>
-      <c r="I7" s="78">
+      <c r="I7" s="68">
         <f>'Input layout'!C63</f>
         <v>0</v>
       </c>
-      <c r="J7" s="78">
+      <c r="J7" s="68">
         <f>'Input layout'!C71</f>
         <v>0</v>
       </c>
-      <c r="K7" s="79">
+      <c r="K7" s="69">
         <f>'Input layout'!C79</f>
         <v>0</v>
       </c>
-      <c r="L7" s="79">
+      <c r="L7" s="69">
         <f>'Input layout'!C87</f>
         <v>0</v>
       </c>
-      <c r="M7" s="80">
+      <c r="M7" s="70">
         <f>'Input layout'!C95</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="23" customHeight="1">
-      <c r="A8" t="s" s="75">
+    <row r="8" spans="1:13" ht="23.1" customHeight="1">
+      <c r="A8" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="66">
         <f>'Input layout'!C8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="66">
         <f>'Input layout'!C16</f>
         <v>0</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="66">
         <f>'Input layout'!C24</f>
         <v>0</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="67">
         <f>'Input layout'!C32</f>
         <v>0</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="67">
         <f>'Input layout'!C40</f>
         <v>0</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="67">
         <f>'Input layout'!C48</f>
         <v>0</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="68">
         <f>'Input layout'!C56</f>
         <v>0</v>
       </c>
-      <c r="I8" s="78">
+      <c r="I8" s="68">
         <f>'Input layout'!C64</f>
         <v>0</v>
       </c>
-      <c r="J8" s="78">
+      <c r="J8" s="68">
         <f>'Input layout'!C72</f>
         <v>0</v>
       </c>
-      <c r="K8" s="79">
+      <c r="K8" s="69">
         <f>'Input layout'!C80</f>
         <v>0</v>
       </c>
-      <c r="L8" s="79">
+      <c r="L8" s="69">
         <f>'Input layout'!C88</f>
         <v>0</v>
       </c>
-      <c r="M8" s="80">
+      <c r="M8" s="70">
         <f>'Input layout'!C96</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="23" customHeight="1">
-      <c r="A9" t="s" s="75">
+    <row r="9" spans="1:13" ht="23.1" customHeight="1">
+      <c r="A9" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="66">
         <f>'Input layout'!C9</f>
         <v>0</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="66">
         <f>'Input layout'!C17</f>
         <v>0</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="66">
         <f>'Input layout'!C25</f>
         <v>0</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="67">
         <f>'Input layout'!C33</f>
         <v>0</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="67">
         <f>'Input layout'!C41</f>
         <v>0</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="67">
         <f>'Input layout'!C49</f>
         <v>0</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="68">
         <f>'Input layout'!C57</f>
         <v>0</v>
       </c>
-      <c r="I9" s="78">
+      <c r="I9" s="68">
         <f>'Input layout'!C65</f>
         <v>0</v>
       </c>
-      <c r="J9" s="78">
+      <c r="J9" s="68">
         <f>'Input layout'!C73</f>
         <v>0</v>
       </c>
-      <c r="K9" s="79">
+      <c r="K9" s="69">
         <f>'Input layout'!C81</f>
         <v>0</v>
       </c>
-      <c r="L9" s="79">
+      <c r="L9" s="69">
         <f>'Input layout'!C89</f>
         <v>0</v>
       </c>
-      <c r="M9" s="80">
+      <c r="M9" s="70">
         <f>'Input layout'!C97</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="23" customHeight="1">
-      <c r="A10" t="s" s="75">
+    <row r="10" spans="1:13" ht="23.1" customHeight="1">
+      <c r="A10" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="66">
         <f>'Input layout'!C10</f>
         <v>0</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="66">
         <f>'Input layout'!C18</f>
         <v>0</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="66">
         <f>'Input layout'!C26</f>
         <v>0</v>
       </c>
-      <c r="E10" s="77">
+      <c r="E10" s="67">
         <f>'Input layout'!C34</f>
         <v>0</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="67">
         <f>'Input layout'!C42</f>
         <v>0</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="67">
         <f>'Input layout'!C50</f>
         <v>0</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="68">
         <f>'Input layout'!C58</f>
         <v>0</v>
       </c>
-      <c r="I10" s="78">
+      <c r="I10" s="68">
         <f>'Input layout'!C66</f>
         <v>0</v>
       </c>
-      <c r="J10" s="78">
+      <c r="J10" s="68">
         <f>'Input layout'!C74</f>
         <v>0</v>
       </c>
-      <c r="K10" s="79">
+      <c r="K10" s="69">
         <f>'Input layout'!C82</f>
         <v>0</v>
       </c>
-      <c r="L10" s="79">
+      <c r="L10" s="69">
         <f>'Input layout'!C90</f>
         <v>0</v>
       </c>
-      <c r="M10" s="80">
+      <c r="M10" s="70">
         <f>'Input layout'!C98</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4642,140 +4725,140 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="13.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2" style="81" customWidth="1"/>
-    <col min="2" max="2" width="66" style="81" customWidth="1"/>
-    <col min="3" max="5" width="16.3516" style="81" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="81" customWidth="1"/>
+    <col min="1" max="1" width="2" style="71" customWidth="1"/>
+    <col min="2" max="2" width="66" style="71" customWidth="1"/>
+    <col min="3" max="6" width="16.28515625" style="71" customWidth="1"/>
+    <col min="7" max="16384" width="16.28515625" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.6" customHeight="1">
-      <c r="A1" t="s" s="82">
+    <row r="1" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A1" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-    </row>
-    <row r="3" ht="26.25" customHeight="1">
-      <c r="A3" s="86"/>
-      <c r="B3" t="s" s="87">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="94"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+    </row>
+    <row r="3" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-    </row>
-    <row r="4" ht="62.7" customHeight="1">
-      <c r="A4" s="86"/>
-      <c r="B4" t="s" s="87">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+    </row>
+    <row r="4" spans="1:5" ht="62.65" customHeight="1">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-    </row>
-    <row r="5" ht="26.25" customHeight="1">
-      <c r="A5" s="89"/>
-      <c r="B5" t="s" s="90">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+    </row>
+    <row r="5" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-    </row>
-    <row r="6" ht="26.7" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" t="s" s="93">
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+    </row>
+    <row r="6" spans="1:5" ht="26.65" customHeight="1">
+      <c r="A6" s="79"/>
+      <c r="B6" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-    </row>
-    <row r="7" ht="14.05" customHeight="1">
-      <c r="A7" s="92"/>
-      <c r="B7" t="s" s="93">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A7" s="79"/>
+      <c r="B7" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-    </row>
-    <row r="8" ht="14.05" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" t="s" s="94">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A8" s="79"/>
+      <c r="B8" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-    </row>
-    <row r="9" ht="14.05" customHeight="1">
-      <c r="A9" s="92"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-    </row>
-    <row r="10" ht="14.05" customHeight="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-    </row>
-    <row r="11" ht="14.05" customHeight="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-    </row>
-    <row r="12" ht="14.05" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-    </row>
-    <row r="13" ht="14.05" customHeight="1">
-      <c r="A13" s="92"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-    </row>
-    <row r="14" ht="14.05" customHeight="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A9" s="79"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A10" s="79"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A11" s="79"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A12" s="79"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A13" s="79"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A14" s="79"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
